--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week15/BSS_EffortLog_XuanThaiHien_Week15.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week15/BSS_EffortLog_XuanThaiHien_Week15.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haitr\Downloads\workflow\effort\Week15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -47,28 +42,16 @@
     <t>Actual Time</t>
   </si>
   <si>
-    <t>Review requirement</t>
-  </si>
-  <si>
-    <t>Modify Physical view</t>
-  </si>
-  <si>
-    <t>Update document structure</t>
-  </si>
-  <si>
     <t>WEEK:15</t>
   </si>
   <si>
-    <t>Validate "Manage News","Manage Account" usecase description</t>
-  </si>
-  <si>
-    <t>15/1/2017</t>
+    <t>Mentor Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +128,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -166,6 +164,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -228,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -280,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -474,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +490,7 @@
   <dimension ref="A1:AA999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +541,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -639,20 +644,20 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
       </c>
-      <c r="E5" s="7">
-        <v>43009</v>
+      <c r="E5" s="13">
+        <v>43070</v>
       </c>
-      <c r="F5" s="7">
-        <v>43009</v>
+      <c r="F5" s="13">
+        <v>43070</v>
       </c>
-      <c r="G5" s="6">
-        <v>3</v>
+      <c r="G5" s="14">
+        <v>2</v>
       </c>
-      <c r="H5" s="6">
-        <v>2</v>
+      <c r="H5" s="14">
+        <v>4</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -677,24 +682,12 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43040</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43040</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>5</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -718,24 +711,12 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="9">
-        <v>43070</v>
-      </c>
-      <c r="F7" s="9">
-        <v>43070</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>3</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -759,24 +740,12 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
